--- a/resource/Legend.xlsx
+++ b/resource/Legend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucd-my.sharepoint.com/personal/philip_giles_ucdconnect_ie/Documents/College/Year 5/SoftwareEng/Project/Code/gameoflife/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jamie\eclipse-workspace\SoftwareEngineering\SoftwareProject\GameOfLife\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{7F485AD9-A58D-4928-8CB1-5594708972D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A0CCC4BE-2C89-40DA-B001-A69CF7C0BDC0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25FEFE6-B4CE-438B-93CF-D36A14E256E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="11715" xr2:uid="{618E5148-43BA-4F3D-8B81-EF3AB21303A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="11718" xr2:uid="{618E5148-43BA-4F3D-8B81-EF3AB21303A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -137,12 +137,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,266 +781,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADC35D1-3698-4C10-B4D1-D06796FA38EE}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.9453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>